--- a/Energy Consumption6.xlsx
+++ b/Energy Consumption6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8514855697431019</v>
+        <v>4.389210974744354</v>
       </c>
       <c r="C2" t="n">
-        <v>1.085433337122115</v>
+        <v>0.8773251943038555</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.226640711747069</v>
+        <v>7.258839897500109</v>
       </c>
       <c r="C3" t="n">
-        <v>2.175908078860607</v>
+        <v>2.108458088857996</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.04787209726601</v>
+        <v>10.77167102313758</v>
       </c>
       <c r="C4" t="n">
-        <v>3.337963510664336</v>
+        <v>3.121451545408707</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2580582129655</v>
+        <v>11.22586032083313</v>
       </c>
       <c r="C5" t="n">
-        <v>4.740358261580177</v>
+        <v>3.868091039954637</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.89455298223259</v>
+        <v>11.38819849730005</v>
       </c>
       <c r="C6" t="n">
-        <v>5.801610600970331</v>
+        <v>4.845529877315457</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.77399203394981</v>
+        <v>11.4946830466471</v>
       </c>
       <c r="C7" t="n">
-        <v>6.954254617325332</v>
+        <v>5.974366460425464</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.30417158437118</v>
+        <v>14.41729959441555</v>
       </c>
       <c r="C8" t="n">
-        <v>8.090961408989418</v>
+        <v>7.593048414961402</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.14336091267135</v>
+        <v>16.74087348140246</v>
       </c>
       <c r="C9" t="n">
-        <v>9.130378227125416</v>
+        <v>8.503492123994338</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6425036880747</v>
+        <v>17.02029197930959</v>
       </c>
       <c r="C10" t="n">
-        <v>10.40465013641325</v>
+        <v>9.640255696851629</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.88769566308941</v>
+        <v>18.99508971640189</v>
       </c>
       <c r="C11" t="n">
-        <v>11.6932651752367</v>
+        <v>10.62161390512883</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.45207505096925</v>
+        <v>21.70055795608577</v>
       </c>
       <c r="C12" t="n">
-        <v>12.76677861573026</v>
+        <v>11.53614924194363</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.55814070993954</v>
+        <v>24.37404717765145</v>
       </c>
       <c r="C13" t="n">
-        <v>13.78705936272358</v>
+        <v>12.51286078740956</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>35.08453713268982</v>
+        <v>26.45002063519137</v>
       </c>
       <c r="C14" t="n">
-        <v>14.81160863224608</v>
+        <v>13.70581766740797</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36.67364317362952</v>
+        <v>30.23163522335052</v>
       </c>
       <c r="C15" t="n">
-        <v>16.25927968828661</v>
+        <v>14.50634543254684</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.62732861283769</v>
+        <v>38.18497229427768</v>
       </c>
       <c r="C16" t="n">
-        <v>17.23940304820529</v>
+        <v>15.41443161594487</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.37127945269295</v>
+        <v>39.54015766885514</v>
       </c>
       <c r="C17" t="n">
-        <v>18.35355175342284</v>
+        <v>16.68896813798776</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.48245822758825</v>
+        <v>40.8358596361718</v>
       </c>
       <c r="C18" t="n">
-        <v>19.46922356229764</v>
+        <v>17.68843916715675</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.69037927505715</v>
+        <v>42.24637081988054</v>
       </c>
       <c r="C19" t="n">
-        <v>20.80163817664348</v>
+        <v>18.68784268766062</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.38001743043542</v>
+        <v>42.62811165670107</v>
       </c>
       <c r="C20" t="n">
-        <v>21.85112391661027</v>
+        <v>19.63036643350028</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.44353671110824</v>
+        <v>48.33094471918476</v>
       </c>
       <c r="C21" t="n">
-        <v>23.01204525377351</v>
+        <v>20.53304776220213</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.30472748108086</v>
+        <v>51.97319651995694</v>
       </c>
       <c r="C22" t="n">
-        <v>24.00824806905264</v>
+        <v>21.45714589434359</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>57.67938695874072</v>
+        <v>52.76491066245535</v>
       </c>
       <c r="C23" t="n">
-        <v>25.13325095795108</v>
+        <v>22.60393225479725</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>57.8121650470958</v>
+        <v>53.31320565783093</v>
       </c>
       <c r="C24" t="n">
-        <v>26.22833599530325</v>
+        <v>23.72180289375063</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>60.28439442151515</v>
+        <v>53.50168987103292</v>
       </c>
       <c r="C25" t="n">
-        <v>27.22425293642042</v>
+        <v>24.58782968008071</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.88855775493565</v>
+        <v>53.58959823329852</v>
       </c>
       <c r="C26" t="n">
-        <v>28.18497437019855</v>
+        <v>25.51752197485436</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.31549355741492</v>
+        <v>53.97803532637133</v>
       </c>
       <c r="C27" t="n">
-        <v>29.25364986189143</v>
+        <v>27.12191281200462</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.45350265134762</v>
+        <v>55.38465624084917</v>
       </c>
       <c r="C28" t="n">
-        <v>30.28610480060512</v>
+        <v>27.89521893806525</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.61250516613636</v>
+        <v>56.16119476823857</v>
       </c>
       <c r="C29" t="n">
-        <v>31.30385079026281</v>
+        <v>28.99267208239896</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.96969602494062</v>
+        <v>57.90918473792295</v>
       </c>
       <c r="C30" t="n">
-        <v>32.42043911224081</v>
+        <v>29.86617111045354</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>71.55515400288294</v>
+        <v>58.16189043055736</v>
       </c>
       <c r="C31" t="n">
-        <v>33.4325411758796</v>
+        <v>31.14006315357301</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.18287384632882</v>
+        <v>61.33655500163309</v>
       </c>
       <c r="C32" t="n">
-        <v>34.49725116411765</v>
+        <v>32.22828765889446</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.57505330436197</v>
+        <v>67.1744709698694</v>
       </c>
       <c r="C33" t="n">
-        <v>35.6089989509078</v>
+        <v>33.43726687531203</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>80.38512075451953</v>
+        <v>67.31578622706076</v>
       </c>
       <c r="C34" t="n">
-        <v>36.64152159747398</v>
+        <v>34.72665316902853</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>80.65570104069688</v>
+        <v>69.29279432400855</v>
       </c>
       <c r="C35" t="n">
-        <v>37.70130247359641</v>
+        <v>35.95087125322502</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>80.75907701118835</v>
+        <v>72.3452675463525</v>
       </c>
       <c r="C36" t="n">
-        <v>38.73842321253914</v>
+        <v>36.91516176199421</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82.49928974124101</v>
+        <v>73.4871610513374</v>
       </c>
       <c r="C37" t="n">
-        <v>40.02951233122765</v>
+        <v>38.5491426876748</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>82.6088755356019</v>
+        <v>75.26493964864538</v>
       </c>
       <c r="C38" t="n">
-        <v>41.04709796618918</v>
+        <v>39.45277333022075</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.0651183884398</v>
+        <v>76.33464142600366</v>
       </c>
       <c r="C39" t="n">
-        <v>42.04035866591668</v>
+        <v>40.37614437094773</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>86.50518276373427</v>
+        <v>76.52629992203804</v>
       </c>
       <c r="C40" t="n">
-        <v>43.28759913781778</v>
+        <v>41.2919995675299</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88.84438985149231</v>
+        <v>84.34543864074656</v>
       </c>
       <c r="C41" t="n">
-        <v>44.25527913576465</v>
+        <v>42.19171928889514</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91.11479362537099</v>
+        <v>84.61659482284063</v>
       </c>
       <c r="C42" t="n">
-        <v>45.26528751995219</v>
+        <v>43.13107913843459</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>92.28850417659076</v>
+        <v>84.76130450755072</v>
       </c>
       <c r="C43" t="n">
-        <v>46.37500509123254</v>
+        <v>44.42179324262965</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.88826543460758</v>
+        <v>85.93698661043175</v>
       </c>
       <c r="C44" t="n">
-        <v>47.37143645927789</v>
+        <v>45.77655170797915</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.81904382893782</v>
+        <v>88.49351888909203</v>
       </c>
       <c r="C45" t="n">
-        <v>48.76198607298531</v>
+        <v>46.90526204981738</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95.74659621402277</v>
+        <v>90.13045300567263</v>
       </c>
       <c r="C46" t="n">
-        <v>49.80963847590753</v>
+        <v>48.42265906477017</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.70436543217571</v>
+        <v>90.27819173470444</v>
       </c>
       <c r="C47" t="n">
-        <v>50.93078794413093</v>
+        <v>49.25298883490328</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99.34536221717993</v>
+        <v>96.11255148235978</v>
       </c>
       <c r="C48" t="n">
-        <v>52.0815225469358</v>
+        <v>50.60341337776472</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99.39752981498057</v>
+        <v>97.45626163485761</v>
       </c>
       <c r="C49" t="n">
-        <v>53.12184014125327</v>
+        <v>51.62124488912205</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>97.62042678732615</v>
+      </c>
+      <c r="C50" t="n">
+        <v>52.58098192091597</v>
       </c>
     </row>
   </sheetData>
